--- a/assets/lea_data.xlsx
+++ b/assets/lea_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="330">
   <si>
     <t>LEA</t>
   </si>
@@ -28,102 +28,153 @@
     <t>4900017</t>
   </si>
   <si>
+    <t>AMES</t>
+  </si>
+  <si>
     <t>Alpine District</t>
   </si>
   <si>
     <t>4900030</t>
   </si>
   <si>
+    <t>Alpine</t>
+  </si>
+  <si>
     <t>American Academy of Innovation</t>
   </si>
   <si>
     <t>4900186</t>
   </si>
   <si>
+    <t>AAI</t>
+  </si>
+  <si>
     <t>American Leadership Academy</t>
   </si>
   <si>
     <t>4900033</t>
   </si>
   <si>
+    <t>ALA</t>
+  </si>
+  <si>
     <t>American Preparatory Academy</t>
   </si>
   <si>
     <t>4900005</t>
   </si>
   <si>
+    <t>APA</t>
+  </si>
+  <si>
     <t>Ascent Academies of Utah</t>
   </si>
   <si>
     <t>4900174</t>
   </si>
   <si>
+    <t>AAU</t>
+  </si>
+  <si>
     <t>ASU Prep Digital Global</t>
   </si>
   <si>
     <t>NULL</t>
   </si>
   <si>
+    <t>ASU Prep</t>
+  </si>
+  <si>
     <t>Athenian eAcademy</t>
   </si>
   <si>
     <t>4900181</t>
   </si>
   <si>
+    <t>Athenian</t>
+  </si>
+  <si>
     <t>Athlos Academy of Utah</t>
   </si>
   <si>
     <t>4900189</t>
   </si>
   <si>
+    <t>Athlos</t>
+  </si>
+  <si>
     <t>Beaver District</t>
   </si>
   <si>
     <t>4900060</t>
   </si>
   <si>
+    <t>Beaver</t>
+  </si>
+  <si>
     <t>Beehive Science &amp; Technology Academy</t>
   </si>
   <si>
     <t>4900023</t>
   </si>
   <si>
+    <t>BSTA</t>
+  </si>
+  <si>
     <t>Box Elder District</t>
   </si>
   <si>
     <t>4900090</t>
   </si>
   <si>
+    <t>Box Elder</t>
+  </si>
+  <si>
     <t>Cache District</t>
   </si>
   <si>
     <t>4900120</t>
   </si>
   <si>
+    <t>Cache</t>
+  </si>
+  <si>
     <t>Canyons District</t>
   </si>
   <si>
     <t>4900142</t>
   </si>
   <si>
+    <t>Canyons</t>
+  </si>
+  <si>
     <t>Capstone Classical Academy</t>
   </si>
   <si>
     <t>4900199</t>
   </si>
   <si>
+    <t>CCA</t>
+  </si>
+  <si>
     <t>Carbon District</t>
   </si>
   <si>
     <t>4900150</t>
   </si>
   <si>
+    <t>Carbon</t>
+  </si>
+  <si>
     <t>Career Academy of Utah</t>
   </si>
   <si>
     <t>4900206</t>
   </si>
   <si>
+    <t>CAU</t>
+  </si>
+  <si>
     <t>City Academy</t>
   </si>
   <si>
@@ -136,6 +187,9 @@
     <t>4900180</t>
   </si>
   <si>
+    <t>Daggett</t>
+  </si>
+  <si>
     <t>Davinci Academy</t>
   </si>
   <si>
@@ -148,114 +202,171 @@
     <t>4900210</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
     <t>Duchesne District</t>
   </si>
   <si>
     <t>4900240</t>
   </si>
   <si>
+    <t>Duchesne</t>
+  </si>
+  <si>
     <t>Early Light Academy at Daybreak</t>
   </si>
   <si>
     <t>4900140</t>
   </si>
   <si>
+    <t>ELA</t>
+  </si>
+  <si>
     <t>East Hollywood High</t>
   </si>
   <si>
     <t>4900036</t>
   </si>
   <si>
+    <t>East Hollywood</t>
+  </si>
+  <si>
     <t>Emery District</t>
   </si>
   <si>
     <t>4900270</t>
   </si>
   <si>
+    <t>Emery</t>
+  </si>
+  <si>
     <t>Fast Forward High</t>
   </si>
   <si>
     <t>4900019</t>
   </si>
   <si>
+    <t>FFCHS</t>
+  </si>
+  <si>
     <t>Freedom Preparatory Academy</t>
   </si>
   <si>
     <t>4900062</t>
   </si>
   <si>
+    <t>FPA</t>
+  </si>
+  <si>
     <t>Garfield District</t>
   </si>
   <si>
     <t>4900300</t>
   </si>
   <si>
+    <t>Garfield</t>
+  </si>
+  <si>
     <t>Grand District</t>
   </si>
   <si>
     <t>4900330</t>
   </si>
   <si>
+    <t>Grand</t>
+  </si>
+  <si>
     <t>Granite District</t>
   </si>
   <si>
     <t>4900360</t>
   </si>
   <si>
+    <t>Granite</t>
+  </si>
+  <si>
     <t>Hawthorn Academy</t>
   </si>
   <si>
     <t>4900137</t>
   </si>
   <si>
+    <t>Hawthorn</t>
+  </si>
+  <si>
     <t>Highmark Charter School</t>
   </si>
   <si>
     <t>4900156</t>
   </si>
   <si>
+    <t>HMCS</t>
+  </si>
+  <si>
     <t>InTech Collegiate Academy</t>
   </si>
   <si>
     <t>4900039</t>
   </si>
   <si>
+    <t>InTech</t>
+  </si>
+  <si>
     <t>Iron District</t>
   </si>
   <si>
     <t>4900390</t>
   </si>
   <si>
+    <t>Iron</t>
+  </si>
+  <si>
     <t>Itineris Early College High</t>
   </si>
   <si>
     <t>4900067</t>
   </si>
   <si>
+    <t>IECHS</t>
+  </si>
+  <si>
     <t>Jordan District</t>
   </si>
   <si>
     <t>4900420</t>
   </si>
   <si>
+    <t>Jordan</t>
+  </si>
+  <si>
     <t>Juab District</t>
   </si>
   <si>
     <t>4900450</t>
   </si>
   <si>
+    <t>Juab</t>
+  </si>
+  <si>
     <t>Kane District</t>
   </si>
   <si>
     <t>4900480</t>
   </si>
   <si>
+    <t>Kane</t>
+  </si>
+  <si>
     <t>Karl G. Maeser Preparatory Academy</t>
   </si>
   <si>
     <t>4900056</t>
   </si>
   <si>
+    <t>Masear</t>
+  </si>
+  <si>
     <t>Lakeview Academy</t>
   </si>
   <si>
@@ -268,255 +379,384 @@
     <t>4900196</t>
   </si>
   <si>
+    <t>LAU</t>
+  </si>
+  <si>
     <t>Legacy Preparatory Academy</t>
   </si>
   <si>
     <t>4900045</t>
   </si>
   <si>
+    <t>Legacy Prep</t>
+  </si>
+  <si>
     <t>Lincoln Academy</t>
   </si>
   <si>
     <t>4900022</t>
   </si>
   <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
     <t>Logan City District</t>
   </si>
   <si>
     <t>4900510</t>
   </si>
   <si>
+    <t>Logan</t>
+  </si>
+  <si>
     <t>Lumen Scholar Institute</t>
   </si>
   <si>
     <t>4900182</t>
   </si>
   <si>
+    <t>Lumen</t>
+  </si>
+  <si>
     <t>Mana Academy Charter School</t>
   </si>
   <si>
     <t>4900165</t>
   </si>
   <si>
+    <t>Mana Academy</t>
+  </si>
+  <si>
     <t>Maria Montessori Academy</t>
   </si>
   <si>
     <t>4900144</t>
   </si>
   <si>
+    <t>MMA</t>
+  </si>
+  <si>
     <t>Merit College Preparatory Academy</t>
   </si>
   <si>
     <t>4900131</t>
   </si>
   <si>
+    <t>Merit</t>
+  </si>
+  <si>
     <t>Millard District</t>
   </si>
   <si>
     <t>4900540</t>
   </si>
   <si>
+    <t>Millard</t>
+  </si>
+  <si>
     <t>Morgan District</t>
   </si>
   <si>
     <t>4900570</t>
   </si>
   <si>
+    <t>Morgan</t>
+  </si>
+  <si>
     <t>Mountain Heights Academy</t>
   </si>
   <si>
     <t>4900138</t>
   </si>
   <si>
+    <t>MHA</t>
+  </si>
+  <si>
     <t>Mountain West Montessori Academy</t>
   </si>
   <si>
     <t>4900175</t>
   </si>
   <si>
+    <t>MWMA</t>
+  </si>
+  <si>
     <t>Mountainville Academy</t>
   </si>
   <si>
     <t>4900051</t>
   </si>
   <si>
+    <t>MVA</t>
+  </si>
+  <si>
     <t>Murray District</t>
   </si>
   <si>
     <t>4900600</t>
   </si>
   <si>
+    <t>Murray</t>
+  </si>
+  <si>
     <t>Navigator Pointe Academy</t>
   </si>
   <si>
     <t>4900034</t>
   </si>
   <si>
+    <t>NPA</t>
+  </si>
+  <si>
     <t>Nebo District</t>
   </si>
   <si>
     <t>4900630</t>
   </si>
   <si>
+    <t>Nebo</t>
+  </si>
+  <si>
     <t>No. UT. Acad. for Math Engineering &amp; Science</t>
   </si>
   <si>
     <t>4900063</t>
   </si>
   <si>
+    <t>NUAMES</t>
+  </si>
+  <si>
     <t>North Davis Preparatory Academy</t>
   </si>
   <si>
     <t>4900068</t>
   </si>
   <si>
+    <t>NDPA</t>
+  </si>
+  <si>
     <t>North Sanpete District</t>
   </si>
   <si>
     <t>4900660</t>
   </si>
   <si>
+    <t>NSSD</t>
+  </si>
+  <si>
     <t>North Star Academy</t>
   </si>
   <si>
     <t>4900025</t>
   </si>
   <si>
+    <t>NSA</t>
+  </si>
+  <si>
     <t>North Summit District</t>
   </si>
   <si>
     <t>4900690</t>
   </si>
   <si>
+    <t>North Summit</t>
+  </si>
+  <si>
     <t>Ogden City District</t>
   </si>
   <si>
     <t>4900720</t>
   </si>
   <si>
+    <t>Ogden City</t>
+  </si>
+  <si>
     <t>Ogden Preparatory Academy</t>
   </si>
   <si>
     <t>4900058</t>
   </si>
   <si>
+    <t>OPA</t>
+  </si>
+  <si>
     <t>Paradigm High School</t>
   </si>
   <si>
     <t>4900052</t>
   </si>
   <si>
+    <t>Paradigm HS</t>
+  </si>
+  <si>
     <t>Park City District</t>
   </si>
   <si>
     <t>4900750</t>
   </si>
   <si>
+    <t>Park City</t>
+  </si>
+  <si>
     <t>Pinnacle Canyon Academy</t>
   </si>
   <si>
     <t>4900008</t>
   </si>
   <si>
+    <t>PCA</t>
+  </si>
+  <si>
     <t>Piute District</t>
   </si>
   <si>
     <t>4900780</t>
   </si>
   <si>
+    <t>Piute</t>
+  </si>
+  <si>
     <t>Providence Hall</t>
   </si>
   <si>
     <t>4900124</t>
   </si>
   <si>
+    <t>PHCS</t>
+  </si>
+  <si>
     <t>Provo District</t>
   </si>
   <si>
     <t>4900810</t>
   </si>
   <si>
+    <t>Provo</t>
+  </si>
+  <si>
     <t>Quest Academy</t>
   </si>
   <si>
     <t>4900132</t>
   </si>
   <si>
+    <t>Quest</t>
+  </si>
+  <si>
     <t>Real Salt Lake Academy High School</t>
   </si>
   <si>
     <t>4900197</t>
   </si>
   <si>
+    <t>RSL Academy</t>
+  </si>
+  <si>
     <t>Renaissance Academy</t>
   </si>
   <si>
     <t>4900038</t>
   </si>
   <si>
+    <t>Renaissance</t>
+  </si>
+  <si>
     <t>Rich District</t>
   </si>
   <si>
     <t>4900840</t>
   </si>
   <si>
+    <t>Rich</t>
+  </si>
+  <si>
     <t>Rockwell Charter High School</t>
   </si>
   <si>
     <t>4900125</t>
   </si>
   <si>
+    <t>RCS</t>
+  </si>
+  <si>
     <t>Roots Charter High School</t>
   </si>
   <si>
     <t>4900178</t>
   </si>
   <si>
+    <t>RCHS</t>
+  </si>
+  <si>
     <t>Salt Lake Academy High School</t>
   </si>
   <si>
+    <t>SLAHS</t>
+  </si>
+  <si>
     <t>Salt Lake Center for Science Education</t>
   </si>
   <si>
     <t>4900123</t>
   </si>
   <si>
+    <t>SLCSE</t>
+  </si>
+  <si>
     <t>Salt Lake District</t>
   </si>
   <si>
     <t>4900870</t>
   </si>
   <si>
+    <t>Salt Lake</t>
+  </si>
+  <si>
     <t>Salt Lake School for the Performing Arts</t>
   </si>
   <si>
     <t>4900050</t>
   </si>
   <si>
+    <t>SPA</t>
+  </si>
+  <si>
     <t>San Juan District</t>
   </si>
   <si>
     <t>4900900</t>
   </si>
   <si>
+    <t>San Juan</t>
+  </si>
+  <si>
     <t>Sevier District</t>
   </si>
   <si>
     <t>4900930</t>
   </si>
   <si>
+    <t>Sevier</t>
+  </si>
+  <si>
     <t>South Sanpete District</t>
   </si>
   <si>
     <t>4900960</t>
   </si>
   <si>
+    <t>South Sanpete</t>
+  </si>
+  <si>
     <t>South Summit District</t>
   </si>
   <si>
     <t>4900990</t>
   </si>
   <si>
+    <t>South Summit</t>
+  </si>
+  <si>
     <t>Spectrum Academy</t>
   </si>
   <si>
@@ -529,6 +769,9 @@
     <t>4900188</t>
   </si>
   <si>
+    <t>SGA</t>
+  </si>
+  <si>
     <t>Success Academy</t>
   </si>
   <si>
@@ -547,48 +790,72 @@
     <t>4900148</t>
   </si>
   <si>
+    <t>SAHS</t>
+  </si>
+  <si>
     <t>Syracuse Arts Academy</t>
   </si>
   <si>
     <t>4900044</t>
   </si>
   <si>
+    <t>SAA</t>
+  </si>
+  <si>
     <t>Terra Academy</t>
   </si>
   <si>
     <t>4900179</t>
   </si>
   <si>
+    <t>Terra</t>
+  </si>
+  <si>
     <t>Tintic District</t>
   </si>
   <si>
     <t>4901020</t>
   </si>
   <si>
+    <t>Tintic</t>
+  </si>
+  <si>
     <t>Tooele District</t>
   </si>
   <si>
     <t>4901050</t>
   </si>
   <si>
+    <t>Tooele</t>
+  </si>
+  <si>
     <t>Uintah District</t>
   </si>
   <si>
     <t>4901080</t>
   </si>
   <si>
+    <t>Uintah</t>
+  </si>
+  <si>
     <t>Uintah River High</t>
   </si>
   <si>
     <t>4900013</t>
   </si>
   <si>
+    <t>URHS</t>
+  </si>
+  <si>
     <t>Utah Arts Academy</t>
   </si>
   <si>
     <t>4900012</t>
   </si>
   <si>
+    <t>UAA</t>
+  </si>
+  <si>
     <t>Utah Arts Academy OLD</t>
   </si>
   <si>
@@ -598,94 +865,142 @@
     <t>4900171</t>
   </si>
   <si>
+    <t>CPH</t>
+  </si>
+  <si>
     <t>Utah Connections Academy</t>
   </si>
   <si>
     <t>4900151</t>
   </si>
   <si>
+    <t>UCA</t>
+  </si>
+  <si>
     <t>Utah County Academy of Science</t>
   </si>
   <si>
     <t>4900020</t>
   </si>
   <si>
+    <t>UCAS</t>
+  </si>
+  <si>
     <t>Utah International Charter School</t>
   </si>
   <si>
     <t>4900166</t>
   </si>
   <si>
+    <t>UICS</t>
+  </si>
+  <si>
     <t>Utah Military Academy</t>
   </si>
   <si>
     <t>4900176</t>
   </si>
   <si>
+    <t>UMA</t>
+  </si>
+  <si>
     <t>Utah Schools for Deaf &amp; Blind</t>
   </si>
   <si>
     <t>4900069</t>
   </si>
   <si>
+    <t>USDB</t>
+  </si>
+  <si>
     <t>Utah Virtual Academy</t>
   </si>
   <si>
     <t>4900130</t>
   </si>
   <si>
+    <t>UTVA</t>
+  </si>
+  <si>
     <t>Vanguard Academy</t>
   </si>
   <si>
     <t>4900183</t>
   </si>
   <si>
+    <t>Vanguard</t>
+  </si>
+  <si>
     <t>Venture Academy</t>
   </si>
   <si>
     <t>4900133</t>
   </si>
   <si>
+    <t>Venture</t>
+  </si>
+  <si>
     <t>Vista School</t>
   </si>
   <si>
     <t>4900141</t>
   </si>
   <si>
+    <t>Vista</t>
+  </si>
+  <si>
     <t>Walden School of Liberal Arts</t>
   </si>
   <si>
     <t>4900061</t>
   </si>
   <si>
+    <t>Walden</t>
+  </si>
+  <si>
     <t>Wasatch District</t>
   </si>
   <si>
     <t>4901110</t>
   </si>
   <si>
+    <t>Wasatch</t>
+  </si>
+  <si>
     <t>Washington District</t>
   </si>
   <si>
     <t>4901140</t>
   </si>
   <si>
+    <t>Washington</t>
+  </si>
+  <si>
     <t>Wayne District</t>
   </si>
   <si>
     <t>4901170</t>
   </si>
   <si>
+    <t>Wayne</t>
+  </si>
+  <si>
     <t>Weber District</t>
   </si>
   <si>
     <t>4901200</t>
   </si>
   <si>
+    <t>Weber</t>
+  </si>
+  <si>
     <t>Winter Sports School</t>
   </si>
   <si>
     <t>4900168</t>
+  </si>
+  <si>
+    <t>WSS</t>
   </si>
 </sst>
 </file>
@@ -695,7 +1010,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -707,18 +1022,29 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -731,13 +1057,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -746,7 +1087,52 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
@@ -755,7 +1141,7 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,73 +1150,13 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
         <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,35 +1166,41 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -888,6 +1220,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
     </indexedColors>
@@ -906,10 +1239,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -1086,11 +1419,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1099,7 +1435,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1113,19 +1449,19 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1364,12 +1700,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1650,7 +1986,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1920,13 +2256,11 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="44.5469" style="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5" style="1" customWidth="1"/>
     <col min="2" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
@@ -1953,1467 +2287,1693 @@
       <c r="B2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="C2" t="s" s="6">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" t="s" s="7">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s" s="8">
+      <c r="A3" t="s" s="8">
         <v>6</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="B3" t="s" s="9">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="8">
-        <v>8</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="A4" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="A5" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="A6" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s" s="10">
+        <v>17</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="A7" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="9">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s" s="10">
+        <v>20</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="A8" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s" s="9">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="7">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="A9" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s" s="9">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="7">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="A10" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s" s="10">
+        <v>29</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="A11" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s" s="9">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="A12" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="A13" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s" s="9">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="A14" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s" s="9">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="A15" t="s" s="8">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s" s="9">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="A16" t="s" s="8">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s" s="9">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s" s="10">
+        <v>47</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s" s="8">
-        <v>34</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="A17" t="s" s="8">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s" s="9">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s" s="10">
+        <v>50</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s" s="8">
-        <v>36</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="A18" t="s" s="8">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s" s="9">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s" s="10">
+        <v>53</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s" s="8">
-        <v>38</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="A19" t="s" s="8">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s" s="9">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s" s="10">
+        <v>54</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="A20" t="s" s="8">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s" s="10">
+        <v>58</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="A21" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s" s="10">
+        <v>59</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s" s="8">
-        <v>44</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="A22" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s" s="9">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s" s="8">
-        <v>46</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="A23" t="s" s="8">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s" s="10">
+        <v>66</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s" s="8">
-        <v>48</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="A24" t="s" s="8">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s" s="9">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s" s="10">
+        <v>69</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s" s="8">
-        <v>50</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="A25" t="s" s="8">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s" s="9">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s" s="10">
+        <v>72</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s" s="8">
-        <v>52</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="A26" t="s" s="8">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s" s="9">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s" s="10">
+        <v>75</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s" s="8">
-        <v>54</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="A27" t="s" s="8">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s" s="9">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s" s="10">
+        <v>78</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s" s="8">
-        <v>56</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="A28" t="s" s="8">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s" s="9">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="B29" t="s" s="8">
-        <v>58</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="A29" t="s" s="8">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s" s="9">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s" s="10">
+        <v>84</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="B30" t="s" s="8">
-        <v>60</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="A30" t="s" s="8">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s" s="9">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s" s="10">
+        <v>87</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="7">
-        <v>61</v>
-      </c>
-      <c r="B31" t="s" s="8">
-        <v>62</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="A31" t="s" s="8">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s" s="10">
+        <v>90</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="7">
-        <v>63</v>
-      </c>
-      <c r="B32" t="s" s="8">
-        <v>64</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="A32" t="s" s="8">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s" s="9">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s" s="10">
+        <v>93</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="7">
-        <v>65</v>
-      </c>
-      <c r="B33" t="s" s="8">
-        <v>66</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="A33" t="s" s="8">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s" s="9">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s" s="10">
+        <v>96</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="7">
-        <v>67</v>
-      </c>
-      <c r="B34" t="s" s="8">
-        <v>68</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="A34" t="s" s="8">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s" s="9">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s" s="10">
+        <v>99</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="7">
-        <v>69</v>
-      </c>
-      <c r="B35" t="s" s="8">
-        <v>70</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="A35" t="s" s="8">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s" s="9">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s" s="10">
+        <v>102</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="7">
-        <v>71</v>
-      </c>
-      <c r="B36" t="s" s="8">
-        <v>72</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+      <c r="A36" t="s" s="8">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s" s="9">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s" s="10">
+        <v>105</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="7">
-        <v>73</v>
-      </c>
-      <c r="B37" t="s" s="8">
-        <v>74</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="A37" t="s" s="8">
+        <v>106</v>
+      </c>
+      <c r="B37" t="s" s="9">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s" s="10">
+        <v>108</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="7">
-        <v>75</v>
-      </c>
-      <c r="B38" t="s" s="8">
-        <v>76</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="A38" t="s" s="8">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s" s="9">
+        <v>110</v>
+      </c>
+      <c r="C38" t="s" s="10">
+        <v>111</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="7">
-        <v>77</v>
-      </c>
-      <c r="B39" t="s" s="8">
-        <v>78</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="A39" t="s" s="8">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s" s="9">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s" s="10">
+        <v>114</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="B40" t="s" s="8">
-        <v>80</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
+      <c r="A40" t="s" s="8">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s" s="9">
+        <v>116</v>
+      </c>
+      <c r="C40" t="s" s="10">
+        <v>117</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="7">
-        <v>81</v>
-      </c>
-      <c r="B41" t="s" s="8">
-        <v>82</v>
-      </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
+      <c r="A41" t="s" s="8">
+        <v>118</v>
+      </c>
+      <c r="B41" t="s" s="9">
+        <v>119</v>
+      </c>
+      <c r="C41" t="s" s="10">
+        <v>118</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" t="s" s="7">
-        <v>83</v>
-      </c>
-      <c r="B42" t="s" s="8">
-        <v>84</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
+      <c r="A42" t="s" s="8">
+        <v>120</v>
+      </c>
+      <c r="B42" t="s" s="9">
+        <v>121</v>
+      </c>
+      <c r="C42" t="s" s="10">
+        <v>122</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" t="s" s="7">
-        <v>85</v>
-      </c>
-      <c r="B43" t="s" s="8">
-        <v>86</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
+      <c r="A43" t="s" s="8">
+        <v>123</v>
+      </c>
+      <c r="B43" t="s" s="9">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s" s="10">
+        <v>125</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" t="s" s="7">
-        <v>87</v>
-      </c>
-      <c r="B44" t="s" s="8">
-        <v>88</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="A44" t="s" s="8">
+        <v>126</v>
+      </c>
+      <c r="B44" t="s" s="9">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s" s="10">
+        <v>128</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" t="s" s="7">
-        <v>89</v>
-      </c>
-      <c r="B45" t="s" s="8">
-        <v>90</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
+      <c r="A45" t="s" s="8">
+        <v>129</v>
+      </c>
+      <c r="B45" t="s" s="9">
+        <v>130</v>
+      </c>
+      <c r="C45" t="s" s="10">
+        <v>131</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" t="s" s="7">
-        <v>91</v>
-      </c>
-      <c r="B46" t="s" s="8">
-        <v>92</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
+      <c r="A46" t="s" s="8">
+        <v>132</v>
+      </c>
+      <c r="B46" t="s" s="9">
+        <v>133</v>
+      </c>
+      <c r="C46" t="s" s="10">
+        <v>134</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" t="s" s="7">
-        <v>93</v>
-      </c>
-      <c r="B47" t="s" s="8">
-        <v>94</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
+      <c r="A47" t="s" s="8">
+        <v>135</v>
+      </c>
+      <c r="B47" t="s" s="9">
+        <v>136</v>
+      </c>
+      <c r="C47" t="s" s="10">
+        <v>137</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" t="s" s="7">
-        <v>95</v>
-      </c>
-      <c r="B48" t="s" s="8">
-        <v>96</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
+      <c r="A48" t="s" s="8">
+        <v>138</v>
+      </c>
+      <c r="B48" t="s" s="9">
+        <v>139</v>
+      </c>
+      <c r="C48" t="s" s="10">
+        <v>140</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" t="s" s="7">
-        <v>97</v>
-      </c>
-      <c r="B49" t="s" s="8">
-        <v>98</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
+      <c r="A49" t="s" s="8">
+        <v>141</v>
+      </c>
+      <c r="B49" t="s" s="9">
+        <v>142</v>
+      </c>
+      <c r="C49" t="s" s="10">
+        <v>143</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" t="s" s="7">
-        <v>99</v>
-      </c>
-      <c r="B50" t="s" s="8">
-        <v>100</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
+      <c r="A50" t="s" s="8">
+        <v>144</v>
+      </c>
+      <c r="B50" t="s" s="9">
+        <v>145</v>
+      </c>
+      <c r="C50" t="s" s="10">
+        <v>146</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" t="s" s="7">
-        <v>101</v>
-      </c>
-      <c r="B51" t="s" s="8">
-        <v>102</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
+      <c r="A51" t="s" s="8">
+        <v>147</v>
+      </c>
+      <c r="B51" t="s" s="9">
+        <v>148</v>
+      </c>
+      <c r="C51" t="s" s="10">
+        <v>149</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" t="s" s="7">
-        <v>103</v>
-      </c>
-      <c r="B52" t="s" s="8">
-        <v>104</v>
-      </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
+      <c r="A52" t="s" s="8">
+        <v>150</v>
+      </c>
+      <c r="B52" t="s" s="9">
+        <v>151</v>
+      </c>
+      <c r="C52" t="s" s="10">
+        <v>152</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
     </row>
     <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" t="s" s="7">
-        <v>105</v>
-      </c>
-      <c r="B53" t="s" s="8">
-        <v>106</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
+      <c r="A53" t="s" s="8">
+        <v>153</v>
+      </c>
+      <c r="B53" t="s" s="9">
+        <v>154</v>
+      </c>
+      <c r="C53" t="s" s="10">
+        <v>155</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
     </row>
     <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" t="s" s="7">
-        <v>107</v>
-      </c>
-      <c r="B54" t="s" s="8">
-        <v>108</v>
-      </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
+      <c r="A54" t="s" s="8">
+        <v>156</v>
+      </c>
+      <c r="B54" t="s" s="9">
+        <v>157</v>
+      </c>
+      <c r="C54" t="s" s="10">
+        <v>158</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
     </row>
     <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" t="s" s="7">
-        <v>109</v>
-      </c>
-      <c r="B55" t="s" s="8">
-        <v>110</v>
-      </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
+      <c r="A55" t="s" s="8">
+        <v>159</v>
+      </c>
+      <c r="B55" t="s" s="9">
+        <v>160</v>
+      </c>
+      <c r="C55" t="s" s="10">
+        <v>161</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
     </row>
     <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" t="s" s="7">
-        <v>111</v>
-      </c>
-      <c r="B56" t="s" s="8">
-        <v>112</v>
-      </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
+      <c r="A56" t="s" s="8">
+        <v>162</v>
+      </c>
+      <c r="B56" t="s" s="9">
+        <v>163</v>
+      </c>
+      <c r="C56" t="s" s="10">
+        <v>164</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
     </row>
     <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" t="s" s="7">
-        <v>113</v>
-      </c>
-      <c r="B57" t="s" s="8">
-        <v>114</v>
-      </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
+      <c r="A57" t="s" s="8">
+        <v>165</v>
+      </c>
+      <c r="B57" t="s" s="9">
+        <v>166</v>
+      </c>
+      <c r="C57" t="s" s="10">
+        <v>167</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
     </row>
     <row r="58" ht="20.05" customHeight="1">
-      <c r="A58" t="s" s="7">
-        <v>115</v>
-      </c>
-      <c r="B58" t="s" s="8">
-        <v>116</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
+      <c r="A58" t="s" s="8">
+        <v>168</v>
+      </c>
+      <c r="B58" t="s" s="9">
+        <v>169</v>
+      </c>
+      <c r="C58" t="s" s="10">
+        <v>170</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
     </row>
     <row r="59" ht="20.05" customHeight="1">
-      <c r="A59" t="s" s="7">
-        <v>117</v>
-      </c>
-      <c r="B59" t="s" s="8">
-        <v>118</v>
-      </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
+      <c r="A59" t="s" s="8">
+        <v>171</v>
+      </c>
+      <c r="B59" t="s" s="9">
+        <v>172</v>
+      </c>
+      <c r="C59" t="s" s="10">
+        <v>173</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
     </row>
     <row r="60" ht="20.05" customHeight="1">
-      <c r="A60" t="s" s="7">
-        <v>119</v>
-      </c>
-      <c r="B60" t="s" s="8">
-        <v>120</v>
-      </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
+      <c r="A60" t="s" s="8">
+        <v>174</v>
+      </c>
+      <c r="B60" t="s" s="9">
+        <v>175</v>
+      </c>
+      <c r="C60" t="s" s="10">
+        <v>176</v>
+      </c>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
     </row>
     <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" t="s" s="7">
-        <v>121</v>
-      </c>
-      <c r="B61" t="s" s="8">
-        <v>122</v>
-      </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
+      <c r="A61" t="s" s="8">
+        <v>177</v>
+      </c>
+      <c r="B61" t="s" s="9">
+        <v>178</v>
+      </c>
+      <c r="C61" t="s" s="10">
+        <v>179</v>
+      </c>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
     </row>
     <row r="62" ht="20.05" customHeight="1">
-      <c r="A62" t="s" s="7">
-        <v>123</v>
-      </c>
-      <c r="B62" t="s" s="8">
-        <v>124</v>
-      </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
+      <c r="A62" t="s" s="8">
+        <v>180</v>
+      </c>
+      <c r="B62" t="s" s="9">
+        <v>181</v>
+      </c>
+      <c r="C62" t="s" s="10">
+        <v>182</v>
+      </c>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
     </row>
     <row r="63" ht="20.05" customHeight="1">
-      <c r="A63" t="s" s="7">
-        <v>125</v>
-      </c>
-      <c r="B63" t="s" s="8">
-        <v>126</v>
-      </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
+      <c r="A63" t="s" s="8">
+        <v>183</v>
+      </c>
+      <c r="B63" t="s" s="9">
+        <v>184</v>
+      </c>
+      <c r="C63" t="s" s="10">
+        <v>185</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
     </row>
     <row r="64" ht="20.05" customHeight="1">
-      <c r="A64" t="s" s="7">
-        <v>127</v>
-      </c>
-      <c r="B64" t="s" s="8">
-        <v>128</v>
-      </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
+      <c r="A64" t="s" s="8">
+        <v>186</v>
+      </c>
+      <c r="B64" t="s" s="9">
+        <v>187</v>
+      </c>
+      <c r="C64" t="s" s="10">
+        <v>188</v>
+      </c>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
     </row>
     <row r="65" ht="20.05" customHeight="1">
-      <c r="A65" t="s" s="7">
-        <v>129</v>
-      </c>
-      <c r="B65" t="s" s="8">
-        <v>130</v>
-      </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
+      <c r="A65" t="s" s="8">
+        <v>189</v>
+      </c>
+      <c r="B65" t="s" s="9">
+        <v>190</v>
+      </c>
+      <c r="C65" t="s" s="10">
+        <v>191</v>
+      </c>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
     </row>
     <row r="66" ht="20.05" customHeight="1">
-      <c r="A66" t="s" s="7">
-        <v>131</v>
-      </c>
-      <c r="B66" t="s" s="8">
-        <v>132</v>
-      </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
+      <c r="A66" t="s" s="8">
+        <v>192</v>
+      </c>
+      <c r="B66" t="s" s="9">
+        <v>193</v>
+      </c>
+      <c r="C66" t="s" s="10">
+        <v>194</v>
+      </c>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
     </row>
     <row r="67" ht="20.05" customHeight="1">
-      <c r="A67" t="s" s="7">
-        <v>133</v>
-      </c>
-      <c r="B67" t="s" s="8">
-        <v>134</v>
-      </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
+      <c r="A67" t="s" s="8">
+        <v>195</v>
+      </c>
+      <c r="B67" t="s" s="9">
+        <v>196</v>
+      </c>
+      <c r="C67" t="s" s="10">
+        <v>197</v>
+      </c>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
     </row>
     <row r="68" ht="20.05" customHeight="1">
-      <c r="A68" t="s" s="7">
-        <v>135</v>
-      </c>
-      <c r="B68" t="s" s="8">
-        <v>136</v>
-      </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
+      <c r="A68" t="s" s="8">
+        <v>198</v>
+      </c>
+      <c r="B68" t="s" s="9">
+        <v>199</v>
+      </c>
+      <c r="C68" t="s" s="10">
+        <v>200</v>
+      </c>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
     </row>
     <row r="69" ht="20.05" customHeight="1">
-      <c r="A69" t="s" s="7">
-        <v>137</v>
-      </c>
-      <c r="B69" t="s" s="8">
-        <v>138</v>
-      </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
+      <c r="A69" t="s" s="8">
+        <v>201</v>
+      </c>
+      <c r="B69" t="s" s="9">
+        <v>202</v>
+      </c>
+      <c r="C69" t="s" s="10">
+        <v>203</v>
+      </c>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
     </row>
     <row r="70" ht="20.05" customHeight="1">
-      <c r="A70" t="s" s="7">
-        <v>139</v>
-      </c>
-      <c r="B70" t="s" s="8">
-        <v>140</v>
-      </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
+      <c r="A70" t="s" s="8">
+        <v>204</v>
+      </c>
+      <c r="B70" t="s" s="9">
+        <v>205</v>
+      </c>
+      <c r="C70" t="s" s="10">
+        <v>206</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
     </row>
     <row r="71" ht="20.05" customHeight="1">
-      <c r="A71" t="s" s="7">
-        <v>141</v>
-      </c>
-      <c r="B71" t="s" s="8">
-        <v>142</v>
-      </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
+      <c r="A71" t="s" s="8">
+        <v>207</v>
+      </c>
+      <c r="B71" t="s" s="9">
+        <v>208</v>
+      </c>
+      <c r="C71" t="s" s="10">
+        <v>209</v>
+      </c>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
     </row>
     <row r="72" ht="20.05" customHeight="1">
-      <c r="A72" t="s" s="7">
-        <v>143</v>
-      </c>
-      <c r="B72" t="s" s="8">
-        <v>144</v>
-      </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
+      <c r="A72" t="s" s="8">
+        <v>210</v>
+      </c>
+      <c r="B72" t="s" s="9">
+        <v>211</v>
+      </c>
+      <c r="C72" t="s" s="10">
+        <v>212</v>
+      </c>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
     </row>
     <row r="73" ht="20.05" customHeight="1">
-      <c r="A73" t="s" s="7">
-        <v>145</v>
-      </c>
-      <c r="B73" t="s" s="8">
-        <v>146</v>
-      </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
+      <c r="A73" t="s" s="8">
+        <v>213</v>
+      </c>
+      <c r="B73" t="s" s="9">
+        <v>214</v>
+      </c>
+      <c r="C73" t="s" s="10">
+        <v>215</v>
+      </c>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
     </row>
     <row r="74" ht="20.05" customHeight="1">
-      <c r="A74" t="s" s="7">
-        <v>147</v>
-      </c>
-      <c r="B74" t="s" s="8">
-        <v>148</v>
-      </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
+      <c r="A74" t="s" s="8">
+        <v>216</v>
+      </c>
+      <c r="B74" t="s" s="9">
+        <v>217</v>
+      </c>
+      <c r="C74" t="s" s="10">
+        <v>218</v>
+      </c>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
     </row>
     <row r="75" ht="20.05" customHeight="1">
-      <c r="A75" t="s" s="7">
-        <v>149</v>
-      </c>
-      <c r="B75" t="s" s="8">
-        <v>150</v>
-      </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
+      <c r="A75" t="s" s="8">
+        <v>219</v>
+      </c>
+      <c r="B75" t="s" s="9">
+        <v>220</v>
+      </c>
+      <c r="C75" t="s" s="10">
+        <v>221</v>
+      </c>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
     </row>
     <row r="76" ht="20.05" customHeight="1">
-      <c r="A76" t="s" s="7">
-        <v>151</v>
-      </c>
-      <c r="B76" t="s" s="8">
-        <v>152</v>
-      </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
+      <c r="A76" t="s" s="8">
+        <v>222</v>
+      </c>
+      <c r="B76" t="s" s="9">
+        <v>223</v>
+      </c>
+      <c r="C76" t="s" s="10">
+        <v>224</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
     </row>
     <row r="77" ht="20.05" customHeight="1">
-      <c r="A77" t="s" s="7">
-        <v>153</v>
-      </c>
-      <c r="B77" t="s" s="8">
-        <v>144</v>
-      </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
+      <c r="A77" t="s" s="8">
+        <v>225</v>
+      </c>
+      <c r="B77" t="s" s="9">
+        <v>211</v>
+      </c>
+      <c r="C77" t="s" s="10">
+        <v>226</v>
+      </c>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
     </row>
     <row r="78" ht="20.05" customHeight="1">
-      <c r="A78" t="s" s="7">
-        <v>154</v>
-      </c>
-      <c r="B78" t="s" s="8">
-        <v>155</v>
-      </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
+      <c r="A78" t="s" s="8">
+        <v>227</v>
+      </c>
+      <c r="B78" t="s" s="9">
+        <v>228</v>
+      </c>
+      <c r="C78" t="s" s="10">
+        <v>229</v>
+      </c>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
     </row>
     <row r="79" ht="20.05" customHeight="1">
-      <c r="A79" t="s" s="7">
-        <v>156</v>
-      </c>
-      <c r="B79" t="s" s="8">
-        <v>157</v>
-      </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
+      <c r="A79" t="s" s="8">
+        <v>230</v>
+      </c>
+      <c r="B79" t="s" s="9">
+        <v>231</v>
+      </c>
+      <c r="C79" t="s" s="10">
+        <v>232</v>
+      </c>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
     </row>
     <row r="80" ht="20.05" customHeight="1">
-      <c r="A80" t="s" s="7">
-        <v>158</v>
-      </c>
-      <c r="B80" t="s" s="8">
-        <v>159</v>
-      </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
+      <c r="A80" t="s" s="8">
+        <v>233</v>
+      </c>
+      <c r="B80" t="s" s="9">
+        <v>234</v>
+      </c>
+      <c r="C80" t="s" s="10">
+        <v>235</v>
+      </c>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
     </row>
     <row r="81" ht="20.05" customHeight="1">
-      <c r="A81" t="s" s="7">
-        <v>160</v>
-      </c>
-      <c r="B81" t="s" s="8">
-        <v>161</v>
-      </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
+      <c r="A81" t="s" s="8">
+        <v>236</v>
+      </c>
+      <c r="B81" t="s" s="9">
+        <v>237</v>
+      </c>
+      <c r="C81" t="s" s="10">
+        <v>238</v>
+      </c>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
     </row>
     <row r="82" ht="20.05" customHeight="1">
-      <c r="A82" t="s" s="7">
-        <v>162</v>
-      </c>
-      <c r="B82" t="s" s="8">
-        <v>163</v>
-      </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
+      <c r="A82" t="s" s="8">
+        <v>239</v>
+      </c>
+      <c r="B82" t="s" s="9">
+        <v>240</v>
+      </c>
+      <c r="C82" t="s" s="10">
+        <v>241</v>
+      </c>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
     </row>
     <row r="83" ht="20.05" customHeight="1">
-      <c r="A83" t="s" s="7">
-        <v>164</v>
-      </c>
-      <c r="B83" t="s" s="8">
-        <v>165</v>
-      </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
+      <c r="A83" t="s" s="8">
+        <v>242</v>
+      </c>
+      <c r="B83" t="s" s="9">
+        <v>243</v>
+      </c>
+      <c r="C83" t="s" s="10">
+        <v>244</v>
+      </c>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
     </row>
     <row r="84" ht="20.05" customHeight="1">
-      <c r="A84" t="s" s="7">
-        <v>166</v>
-      </c>
-      <c r="B84" t="s" s="8">
-        <v>167</v>
-      </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
+      <c r="A84" t="s" s="8">
+        <v>245</v>
+      </c>
+      <c r="B84" t="s" s="9">
+        <v>246</v>
+      </c>
+      <c r="C84" t="s" s="10">
+        <v>247</v>
+      </c>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
     </row>
     <row r="85" ht="20.05" customHeight="1">
-      <c r="A85" t="s" s="7">
-        <v>168</v>
-      </c>
-      <c r="B85" t="s" s="8">
-        <v>169</v>
-      </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
+      <c r="A85" t="s" s="8">
+        <v>248</v>
+      </c>
+      <c r="B85" t="s" s="9">
+        <v>249</v>
+      </c>
+      <c r="C85" t="s" s="10">
+        <v>248</v>
+      </c>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
     </row>
     <row r="86" ht="20.05" customHeight="1">
-      <c r="A86" t="s" s="7">
-        <v>168</v>
-      </c>
-      <c r="B86" t="s" s="8">
-        <v>169</v>
-      </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
+      <c r="A86" t="s" s="8">
+        <v>248</v>
+      </c>
+      <c r="B86" t="s" s="9">
+        <v>249</v>
+      </c>
+      <c r="C86" t="s" s="10">
+        <v>248</v>
+      </c>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
     </row>
     <row r="87" ht="20.05" customHeight="1">
-      <c r="A87" t="s" s="7">
-        <v>170</v>
-      </c>
-      <c r="B87" t="s" s="8">
-        <v>171</v>
-      </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
+      <c r="A87" t="s" s="8">
+        <v>250</v>
+      </c>
+      <c r="B87" t="s" s="9">
+        <v>251</v>
+      </c>
+      <c r="C87" t="s" s="10">
+        <v>252</v>
+      </c>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
     </row>
     <row r="88" ht="20.05" customHeight="1">
-      <c r="A88" t="s" s="7">
-        <v>172</v>
-      </c>
-      <c r="B88" t="s" s="8">
-        <v>173</v>
-      </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
+      <c r="A88" t="s" s="8">
+        <v>253</v>
+      </c>
+      <c r="B88" t="s" s="9">
+        <v>254</v>
+      </c>
+      <c r="C88" t="s" s="10">
+        <v>253</v>
+      </c>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
     </row>
     <row r="89" ht="20.05" customHeight="1">
-      <c r="A89" t="s" s="7">
-        <v>174</v>
-      </c>
-      <c r="B89" t="s" s="8">
-        <v>175</v>
-      </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
+      <c r="A89" t="s" s="8">
+        <v>255</v>
+      </c>
+      <c r="B89" t="s" s="9">
+        <v>256</v>
+      </c>
+      <c r="C89" t="s" s="10">
+        <v>255</v>
+      </c>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
     </row>
     <row r="90" ht="20.05" customHeight="1">
-      <c r="A90" t="s" s="7">
-        <v>176</v>
-      </c>
-      <c r="B90" t="s" s="8">
-        <v>177</v>
-      </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
+      <c r="A90" t="s" s="8">
+        <v>257</v>
+      </c>
+      <c r="B90" t="s" s="9">
+        <v>258</v>
+      </c>
+      <c r="C90" t="s" s="10">
+        <v>259</v>
+      </c>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
     </row>
     <row r="91" ht="20.05" customHeight="1">
-      <c r="A91" t="s" s="7">
-        <v>178</v>
-      </c>
-      <c r="B91" t="s" s="8">
-        <v>179</v>
-      </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
+      <c r="A91" t="s" s="8">
+        <v>260</v>
+      </c>
+      <c r="B91" t="s" s="9">
+        <v>261</v>
+      </c>
+      <c r="C91" t="s" s="10">
+        <v>262</v>
+      </c>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
     </row>
     <row r="92" ht="20.05" customHeight="1">
-      <c r="A92" t="s" s="7">
-        <v>180</v>
-      </c>
-      <c r="B92" t="s" s="8">
-        <v>181</v>
-      </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
+      <c r="A92" t="s" s="8">
+        <v>263</v>
+      </c>
+      <c r="B92" t="s" s="9">
+        <v>264</v>
+      </c>
+      <c r="C92" t="s" s="10">
+        <v>265</v>
+      </c>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
     </row>
     <row r="93" ht="20.05" customHeight="1">
-      <c r="A93" t="s" s="7">
-        <v>182</v>
-      </c>
-      <c r="B93" t="s" s="8">
-        <v>183</v>
-      </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
+      <c r="A93" t="s" s="8">
+        <v>266</v>
+      </c>
+      <c r="B93" t="s" s="9">
+        <v>267</v>
+      </c>
+      <c r="C93" t="s" s="10">
+        <v>268</v>
+      </c>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
     </row>
     <row r="94" ht="20.05" customHeight="1">
-      <c r="A94" t="s" s="7">
-        <v>184</v>
-      </c>
-      <c r="B94" t="s" s="8">
-        <v>185</v>
-      </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
+      <c r="A94" t="s" s="8">
+        <v>269</v>
+      </c>
+      <c r="B94" t="s" s="9">
+        <v>270</v>
+      </c>
+      <c r="C94" t="s" s="10">
+        <v>271</v>
+      </c>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
     </row>
     <row r="95" ht="20.05" customHeight="1">
-      <c r="A95" t="s" s="7">
-        <v>186</v>
-      </c>
-      <c r="B95" t="s" s="8">
-        <v>187</v>
-      </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
+      <c r="A95" t="s" s="8">
+        <v>272</v>
+      </c>
+      <c r="B95" t="s" s="9">
+        <v>273</v>
+      </c>
+      <c r="C95" t="s" s="10">
+        <v>274</v>
+      </c>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
     </row>
     <row r="96" ht="20.05" customHeight="1">
-      <c r="A96" t="s" s="7">
-        <v>188</v>
-      </c>
-      <c r="B96" t="s" s="8">
-        <v>189</v>
-      </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
+      <c r="A96" t="s" s="8">
+        <v>275</v>
+      </c>
+      <c r="B96" t="s" s="9">
+        <v>276</v>
+      </c>
+      <c r="C96" t="s" s="10">
+        <v>277</v>
+      </c>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
     </row>
     <row r="97" ht="20.05" customHeight="1">
-      <c r="A97" t="s" s="7">
-        <v>190</v>
-      </c>
-      <c r="B97" t="s" s="8">
-        <v>191</v>
-      </c>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
+      <c r="A97" t="s" s="8">
+        <v>278</v>
+      </c>
+      <c r="B97" t="s" s="9">
+        <v>279</v>
+      </c>
+      <c r="C97" t="s" s="10">
+        <v>280</v>
+      </c>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
     </row>
     <row r="98" ht="20.05" customHeight="1">
-      <c r="A98" t="s" s="7">
-        <v>192</v>
-      </c>
-      <c r="B98" t="s" s="8">
-        <v>191</v>
-      </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
+      <c r="A98" t="s" s="8">
+        <v>281</v>
+      </c>
+      <c r="B98" t="s" s="9">
+        <v>279</v>
+      </c>
+      <c r="C98" t="s" s="10">
+        <v>280</v>
+      </c>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
     </row>
     <row r="99" ht="20.05" customHeight="1">
-      <c r="A99" t="s" s="7">
-        <v>193</v>
-      </c>
-      <c r="B99" t="s" s="8">
-        <v>194</v>
-      </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
+      <c r="A99" t="s" s="8">
+        <v>282</v>
+      </c>
+      <c r="B99" t="s" s="9">
+        <v>283</v>
+      </c>
+      <c r="C99" t="s" s="10">
+        <v>284</v>
+      </c>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
     </row>
     <row r="100" ht="20.05" customHeight="1">
-      <c r="A100" t="s" s="7">
-        <v>195</v>
-      </c>
-      <c r="B100" t="s" s="8">
-        <v>196</v>
-      </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
+      <c r="A100" t="s" s="8">
+        <v>285</v>
+      </c>
+      <c r="B100" t="s" s="9">
+        <v>286</v>
+      </c>
+      <c r="C100" t="s" s="10">
+        <v>287</v>
+      </c>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
     </row>
     <row r="101" ht="20.05" customHeight="1">
-      <c r="A101" t="s" s="7">
-        <v>197</v>
-      </c>
-      <c r="B101" t="s" s="8">
-        <v>198</v>
-      </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
+      <c r="A101" t="s" s="8">
+        <v>288</v>
+      </c>
+      <c r="B101" t="s" s="9">
+        <v>289</v>
+      </c>
+      <c r="C101" t="s" s="10">
+        <v>290</v>
+      </c>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
     </row>
     <row r="102" ht="20.05" customHeight="1">
-      <c r="A102" t="s" s="7">
-        <v>199</v>
-      </c>
-      <c r="B102" t="s" s="8">
-        <v>200</v>
-      </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
+      <c r="A102" t="s" s="8">
+        <v>291</v>
+      </c>
+      <c r="B102" t="s" s="9">
+        <v>292</v>
+      </c>
+      <c r="C102" t="s" s="10">
+        <v>293</v>
+      </c>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
     </row>
     <row r="103" ht="20.05" customHeight="1">
-      <c r="A103" t="s" s="7">
-        <v>201</v>
-      </c>
-      <c r="B103" t="s" s="8">
-        <v>202</v>
-      </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
+      <c r="A103" t="s" s="8">
+        <v>294</v>
+      </c>
+      <c r="B103" t="s" s="9">
+        <v>295</v>
+      </c>
+      <c r="C103" t="s" s="10">
+        <v>296</v>
+      </c>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
     </row>
     <row r="104" ht="20.05" customHeight="1">
-      <c r="A104" t="s" s="7">
-        <v>203</v>
-      </c>
-      <c r="B104" t="s" s="8">
-        <v>204</v>
-      </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
+      <c r="A104" t="s" s="8">
+        <v>297</v>
+      </c>
+      <c r="B104" t="s" s="9">
+        <v>298</v>
+      </c>
+      <c r="C104" t="s" s="10">
+        <v>299</v>
+      </c>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
     </row>
     <row r="105" ht="20.05" customHeight="1">
-      <c r="A105" t="s" s="7">
-        <v>205</v>
-      </c>
-      <c r="B105" t="s" s="8">
-        <v>206</v>
-      </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
+      <c r="A105" t="s" s="8">
+        <v>300</v>
+      </c>
+      <c r="B105" t="s" s="9">
+        <v>301</v>
+      </c>
+      <c r="C105" t="s" s="10">
+        <v>302</v>
+      </c>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
     </row>
     <row r="106" ht="20.05" customHeight="1">
-      <c r="A106" t="s" s="7">
-        <v>207</v>
-      </c>
-      <c r="B106" t="s" s="8">
-        <v>208</v>
-      </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
+      <c r="A106" t="s" s="8">
+        <v>303</v>
+      </c>
+      <c r="B106" t="s" s="9">
+        <v>304</v>
+      </c>
+      <c r="C106" t="s" s="10">
+        <v>305</v>
+      </c>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
     </row>
     <row r="107" ht="20.05" customHeight="1">
-      <c r="A107" t="s" s="7">
-        <v>209</v>
-      </c>
-      <c r="B107" t="s" s="8">
-        <v>210</v>
-      </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
+      <c r="A107" t="s" s="8">
+        <v>306</v>
+      </c>
+      <c r="B107" t="s" s="9">
+        <v>307</v>
+      </c>
+      <c r="C107" t="s" s="10">
+        <v>308</v>
+      </c>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
     </row>
     <row r="108" ht="20.05" customHeight="1">
-      <c r="A108" t="s" s="7">
-        <v>211</v>
-      </c>
-      <c r="B108" t="s" s="8">
-        <v>212</v>
-      </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
+      <c r="A108" t="s" s="8">
+        <v>309</v>
+      </c>
+      <c r="B108" t="s" s="9">
+        <v>310</v>
+      </c>
+      <c r="C108" t="s" s="10">
+        <v>311</v>
+      </c>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
     </row>
     <row r="109" ht="20.05" customHeight="1">
-      <c r="A109" t="s" s="7">
-        <v>213</v>
-      </c>
-      <c r="B109" t="s" s="8">
-        <v>214</v>
-      </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
+      <c r="A109" t="s" s="8">
+        <v>312</v>
+      </c>
+      <c r="B109" t="s" s="9">
+        <v>313</v>
+      </c>
+      <c r="C109" t="s" s="10">
+        <v>314</v>
+      </c>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
     </row>
     <row r="110" ht="20.05" customHeight="1">
-      <c r="A110" t="s" s="7">
-        <v>215</v>
-      </c>
-      <c r="B110" t="s" s="8">
-        <v>216</v>
-      </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
+      <c r="A110" t="s" s="8">
+        <v>315</v>
+      </c>
+      <c r="B110" t="s" s="9">
+        <v>316</v>
+      </c>
+      <c r="C110" t="s" s="10">
+        <v>317</v>
+      </c>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
     </row>
     <row r="111" ht="20.05" customHeight="1">
-      <c r="A111" t="s" s="7">
-        <v>217</v>
-      </c>
-      <c r="B111" t="s" s="8">
-        <v>218</v>
-      </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
+      <c r="A111" t="s" s="8">
+        <v>318</v>
+      </c>
+      <c r="B111" t="s" s="9">
+        <v>319</v>
+      </c>
+      <c r="C111" t="s" s="10">
+        <v>320</v>
+      </c>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
     </row>
     <row r="112" ht="20.05" customHeight="1">
-      <c r="A112" t="s" s="7">
-        <v>219</v>
-      </c>
-      <c r="B112" t="s" s="8">
-        <v>220</v>
-      </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
+      <c r="A112" t="s" s="8">
+        <v>321</v>
+      </c>
+      <c r="B112" t="s" s="9">
+        <v>322</v>
+      </c>
+      <c r="C112" t="s" s="10">
+        <v>323</v>
+      </c>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
     </row>
     <row r="113" ht="20.05" customHeight="1">
-      <c r="A113" t="s" s="7">
-        <v>221</v>
-      </c>
-      <c r="B113" t="s" s="8">
-        <v>222</v>
-      </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
+      <c r="A113" t="s" s="8">
+        <v>324</v>
+      </c>
+      <c r="B113" t="s" s="9">
+        <v>325</v>
+      </c>
+      <c r="C113" t="s" s="10">
+        <v>326</v>
+      </c>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
     </row>
     <row r="114" ht="20.05" customHeight="1">
-      <c r="A114" t="s" s="7">
-        <v>223</v>
-      </c>
-      <c r="B114" t="s" s="8">
-        <v>224</v>
-      </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
+      <c r="A114" t="s" s="8">
+        <v>327</v>
+      </c>
+      <c r="B114" t="s" s="9">
+        <v>328</v>
+      </c>
+      <c r="C114" t="s" s="10">
+        <v>329</v>
+      </c>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
